--- a/src/main/java/dataRepository/logindatalocal.xlsx
+++ b/src/main/java/dataRepository/logindatalocal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,25 +28,37 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">testtwo5@mailinator.com</t>
+    <t xml:space="preserve">testthree1@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">testtwo6@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testtwo7@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testtwo8@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testtwo9@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testtwo10@mailinator.com</t>
+    <t xml:space="preserve">testthree2@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testthree3@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testthree4@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testthree5@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testthree6@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testthree7@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testthree8@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testthree9@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testthree10@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -154,20 +166,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="20.5204081632653" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="9.31632653061224" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="26.0510204081633" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="19.3061224489796" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="20.25" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="9.17857142857143" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="25.6479591836735" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="19.0357142857143" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -180,7 +192,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -188,25 +200,9 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindatalocal.xlsx
+++ b/src/main/java/dataRepository/logindatalocal.xlsx
@@ -28,37 +28,37 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">testthree1@mailinator.com</t>
+    <t xml:space="preserve">testfour1@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">testthree2@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testthree3@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testthree4@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testthree5@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testthree6@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testthree7@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testthree8@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testthree9@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testthree10@mailinator.com</t>
+    <t xml:space="preserve">testfour2@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testfour3@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testfour4@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testfour5@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testfour6@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testfour7@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testfour8@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testfour9@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testfour10@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -174,12 +174,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="20.25" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="9.17857142857143" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="25.6479591836735" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="19.0357142857143" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="19.9795918367347" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="9.04591836734694" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="25.3775510204082" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="18.765306122449" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -192,7 +190,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -200,9 +198,57 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>3</v>
       </c>
     </row>
